--- a/Jordan-Prep/feature_importance.xlsx
+++ b/Jordan-Prep/feature_importance.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="157">
   <si>
     <t>RF stimulants init</t>
   </si>
@@ -153,6 +153,339 @@
   </si>
   <si>
     <t>LR opioids engage30</t>
+  </si>
+  <si>
+    <t>ada_0_cd_65</t>
+  </si>
+  <si>
+    <t>ada_0_cd_8</t>
+  </si>
+  <si>
+    <t>ada_0_cd_2</t>
+  </si>
+  <si>
+    <t>ada_0_cd_12</t>
+  </si>
+  <si>
+    <t>ada_0_cd_45</t>
+  </si>
+  <si>
+    <t>ada_0_cd_3</t>
+  </si>
+  <si>
+    <t>ada_0_cd_20</t>
+  </si>
+  <si>
+    <t>ada_0_cd_60</t>
+  </si>
+  <si>
+    <t>ada_0_cd_73</t>
+  </si>
+  <si>
+    <t>adhdg_0_cd_0</t>
+  </si>
+  <si>
+    <t>ada_0_cd_46</t>
+  </si>
+  <si>
+    <t>ada_0_cd_80</t>
+  </si>
+  <si>
+    <t>ada_0_cd_14</t>
+  </si>
+  <si>
+    <t>ada_0_cd_56</t>
+  </si>
+  <si>
+    <t>ada_0_cd_34</t>
+  </si>
+  <si>
+    <t>ada_0_cd_42</t>
+  </si>
+  <si>
+    <t>cjsig_0_cd_2</t>
+  </si>
+  <si>
+    <t>ada_0_cd_10</t>
+  </si>
+  <si>
+    <t>ada_0_cd_27</t>
+  </si>
+  <si>
+    <t>ada_0_cd_87</t>
+  </si>
+  <si>
+    <t>ada_0_cd_69</t>
+  </si>
+  <si>
+    <t>srig_0_cd_0</t>
+  </si>
+  <si>
+    <t>ada_0_cd_13</t>
+  </si>
+  <si>
+    <t>ada_0_cd_30</t>
+  </si>
+  <si>
+    <t>TRIg_0_cd_0</t>
+  </si>
+  <si>
+    <t>ada_0_cd_18</t>
+  </si>
+  <si>
+    <t>adhdg_0_cd_2</t>
+  </si>
+  <si>
+    <t>dssg_0_cd_2</t>
+  </si>
+  <si>
+    <t>ada_0_cd_6</t>
+  </si>
+  <si>
+    <t>ada_0_cd_15</t>
+  </si>
+  <si>
+    <t>ada_0_cd_38</t>
+  </si>
+  <si>
+    <t>ada_0_cd_5</t>
+  </si>
+  <si>
+    <t>ada_0_cd_89</t>
+  </si>
+  <si>
+    <t>ada_0_cd_29</t>
+  </si>
+  <si>
+    <t>ada_0_cd_76</t>
+  </si>
+  <si>
+    <t>ada_0_cd_64</t>
+  </si>
+  <si>
+    <t>ada_0_cd_17</t>
+  </si>
+  <si>
+    <t>ada_0_cd_54</t>
+  </si>
+  <si>
+    <t>lrig_0_cd_0</t>
+  </si>
+  <si>
+    <t>ada_0_cd_23</t>
+  </si>
+  <si>
+    <t>ada_0_cd_63</t>
+  </si>
+  <si>
+    <t>ada_0_cd_70</t>
+  </si>
+  <si>
+    <t>ada_0_cd_25</t>
+  </si>
+  <si>
+    <t>ada_0_cd_55</t>
+  </si>
+  <si>
+    <t>ada_0_cd_39</t>
+  </si>
+  <si>
+    <t>ada_0_cd_59</t>
+  </si>
+  <si>
+    <t>ada_0_cd_83</t>
+  </si>
+  <si>
+    <t>ada_0_cd_84</t>
+  </si>
+  <si>
+    <t>ada_0_cd_26</t>
+  </si>
+  <si>
+    <t>ada_0_cd_32</t>
+  </si>
+  <si>
+    <t>ada_0_cd_44</t>
+  </si>
+  <si>
+    <t>ada_0_cd_35</t>
+  </si>
+  <si>
+    <t>ada_0_cd_9</t>
+  </si>
+  <si>
+    <t>ada_0_cd_68</t>
+  </si>
+  <si>
+    <t>ada_0_cd_47</t>
+  </si>
+  <si>
+    <t>ada_0_cd_24</t>
+  </si>
+  <si>
+    <t>ada_0_cd_72</t>
+  </si>
+  <si>
+    <t>ada_0_cd_50</t>
+  </si>
+  <si>
+    <t>ada_0_cd_57</t>
+  </si>
+  <si>
+    <t>gcsg_0_cd_2</t>
+  </si>
+  <si>
+    <t>ada_0_cd_7</t>
+  </si>
+  <si>
+    <t>ada_0_cd_88</t>
+  </si>
+  <si>
+    <t>srprobg_cd_2</t>
+  </si>
+  <si>
+    <t>ada_0_cd_16</t>
+  </si>
+  <si>
+    <t>cjsig_0_cd_0</t>
+  </si>
+  <si>
+    <t>ada_0_cd_90</t>
+  </si>
+  <si>
+    <t>ada_0_cd_28</t>
+  </si>
+  <si>
+    <t>S9y10_cd_8</t>
+  </si>
+  <si>
+    <t>ada_0_cd_78</t>
+  </si>
+  <si>
+    <t>ada_0_cd_36</t>
+  </si>
+  <si>
+    <t>cdsg_0_cd_0</t>
+  </si>
+  <si>
+    <t>CWSg_0_cd_2</t>
+  </si>
+  <si>
+    <t>ada_0_cd_19</t>
+  </si>
+  <si>
+    <t>ada_0_cd_43</t>
+  </si>
+  <si>
+    <t>gvsg_cd_2</t>
+  </si>
+  <si>
+    <t>ada_0_cd_58</t>
+  </si>
+  <si>
+    <t>ada_0_cd_0</t>
+  </si>
+  <si>
+    <t>ada_0_cd_40</t>
+  </si>
+  <si>
+    <t>ada_0_cd_62</t>
+  </si>
+  <si>
+    <t>ada_0_cd_66</t>
+  </si>
+  <si>
+    <t>ada_0_cd_52</t>
+  </si>
+  <si>
+    <t>ada_0_cd_67</t>
+  </si>
+  <si>
+    <t>ada_0_cd_37</t>
+  </si>
+  <si>
+    <t>epsg_0_cd_0</t>
+  </si>
+  <si>
+    <t>dssg_0_cd_0</t>
+  </si>
+  <si>
+    <t>ada_0_cd_85</t>
+  </si>
+  <si>
+    <t>ada_0_cd_74</t>
+  </si>
+  <si>
+    <t>ada_0_cd_49</t>
+  </si>
+  <si>
+    <t>srig_0_cd_2</t>
+  </si>
+  <si>
+    <t>ada_0_cd_75</t>
+  </si>
+  <si>
+    <t>ada_0_cd_79</t>
+  </si>
+  <si>
+    <t>SESg_0_cd_2</t>
+  </si>
+  <si>
+    <t>TMIg_0_cd_2</t>
+  </si>
+  <si>
+    <t>ada_0_cd_82</t>
+  </si>
+  <si>
+    <t>ada_0_cd_77</t>
+  </si>
+  <si>
+    <t>gvsg_cd_0</t>
+  </si>
+  <si>
+    <t>ada_0_cd_86</t>
+  </si>
+  <si>
+    <t>epsg_0_cd_2</t>
+  </si>
+  <si>
+    <t>ada_0_cd_22</t>
+  </si>
+  <si>
+    <t>ada_0_cd_48</t>
+  </si>
+  <si>
+    <t>srprobg_cd_0</t>
+  </si>
+  <si>
+    <t>SESg_0_cd_0</t>
+  </si>
+  <si>
+    <t>cdsg_0_cd_2</t>
+  </si>
+  <si>
+    <t>ada_0_cd_53</t>
+  </si>
+  <si>
+    <t>CWSg_0_cd_0</t>
+  </si>
+  <si>
+    <t>lrig_0_cd_2</t>
+  </si>
+  <si>
+    <t>gcsg_0_cd_0</t>
+  </si>
+  <si>
+    <t>TMIg_0_cd_0</t>
+  </si>
+  <si>
+    <t>S9y10_cd_2</t>
+  </si>
+  <si>
+    <t>ada_0_cd_4</t>
+  </si>
+  <si>
+    <t>TRIg_0_cd_2</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1291,722 +1624,2622 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>-0.7457033821439999</v>
+        <v>2.262391618334846</v>
       </c>
       <c r="C2">
-        <v>-1.263854367112181</v>
+        <v>1.816216239196866</v>
       </c>
       <c r="D2">
-        <v>0.7232917828820965</v>
+        <v>0.1859160080340705</v>
       </c>
       <c r="E2">
-        <v>0.8105206351314257</v>
+        <v>-0.3643527452866744</v>
       </c>
       <c r="F2">
-        <v>3.543370167269703</v>
+        <v>4.628876610852456</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>1.13353206739878</v>
+        <v>-0.5265299332277007</v>
       </c>
       <c r="C3">
-        <v>1.039042572524562</v>
+        <v>-0.4965661900631073</v>
       </c>
       <c r="D3">
-        <v>0.253642202119566</v>
+        <v>1.489775098859738</v>
       </c>
       <c r="E3">
-        <v>-0.5043884211895718</v>
+        <v>1.221570321039999</v>
       </c>
       <c r="F3">
-        <v>2.930605263232481</v>
+        <v>3.734441543190544</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>-0.3070821931325309</v>
+        <v>0.4195447678228486</v>
       </c>
       <c r="C4">
-        <v>-1.010055895353668</v>
+        <v>0.2865663121879169</v>
       </c>
       <c r="D4">
-        <v>0.02731307673921306</v>
+        <v>1.53404403545089</v>
       </c>
       <c r="E4">
-        <v>-0.5705907833542675</v>
+        <v>0.6518073530947557</v>
       </c>
       <c r="F4">
-        <v>1.91504194857968</v>
+        <v>2.891962468556411</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>-0.144439377161059</v>
+        <v>0.5633420464053602</v>
       </c>
       <c r="C5">
-        <v>0.08945711921604008</v>
+        <v>0.5649551615861395</v>
       </c>
       <c r="D5">
-        <v>-0.6467236151450484</v>
+        <v>0.6786004713451084</v>
       </c>
       <c r="E5">
-        <v>-0.9585442516555037</v>
+        <v>0.9486784678504658</v>
       </c>
       <c r="F5">
-        <v>1.839164363177651</v>
+        <v>2.755576147187074</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>-0.05032154293086967</v>
+        <v>1.007441797806363</v>
       </c>
       <c r="C6">
-        <v>1.115690590299864</v>
+        <v>-0.6283449263274929</v>
       </c>
       <c r="D6">
-        <v>0.2132791902511538</v>
+        <v>0.4448206503205687</v>
       </c>
       <c r="E6">
-        <v>0.4478306717728348</v>
+        <v>0.5682819381750264</v>
       </c>
       <c r="F6">
-        <v>1.827121995254723</v>
+        <v>2.648889312629451</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>0.813523153741201</v>
+        <v>1.189557848080067</v>
       </c>
       <c r="C7">
-        <v>0.4412348104790868</v>
+        <v>-0.1798823028014002</v>
       </c>
       <c r="D7">
-        <v>-0.17797101824676</v>
+        <v>0.6348616795020123</v>
       </c>
       <c r="E7">
-        <v>-0.3395296815095428</v>
+        <v>-0.6301477208469008</v>
       </c>
       <c r="F7">
-        <v>1.77225866397659</v>
+        <v>2.63444955123038</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>0.7291192080513039</v>
+        <v>1.407189242925563</v>
       </c>
       <c r="C8">
-        <v>0.05000667503080509</v>
+        <v>0.5477138955093446</v>
       </c>
       <c r="D8">
-        <v>-0.4193940617599729</v>
+        <v>-0.2554799009902008</v>
       </c>
       <c r="E8">
-        <v>0.5285119766343455</v>
+        <v>-0.2820112177251791</v>
       </c>
       <c r="F8">
-        <v>1.727031921476427</v>
+        <v>2.492394257150288</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>-0.951950152429351</v>
+        <v>0.6486775103697371</v>
       </c>
       <c r="C9">
-        <v>0.1031819026548248</v>
+        <v>0.5508922451664438</v>
       </c>
       <c r="D9">
-        <v>0.1245936369404512</v>
+        <v>0.7091966565791388</v>
       </c>
       <c r="E9">
-        <v>0.1157354640671418</v>
+        <v>-0.53918621189375</v>
       </c>
       <c r="F9">
-        <v>1.295461156091769</v>
+        <v>2.44795262400907</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B10">
-        <v>0.5367102968322146</v>
+        <v>1.10875837830213</v>
       </c>
       <c r="C10">
-        <v>0.5199804026030667</v>
+        <v>-0.1976521712836979</v>
       </c>
       <c r="D10">
-        <v>0.1567447515105954</v>
+        <v>-0.1864341114961559</v>
       </c>
       <c r="E10">
-        <v>0.06934518136540789</v>
+        <v>0.9158251375870974</v>
       </c>
       <c r="F10">
-        <v>1.282780632311284</v>
+        <v>2.408669798669082</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B11">
-        <v>0.4633994631259234</v>
+        <v>1.211791582671625</v>
       </c>
       <c r="C11">
-        <v>0.1536077155562318</v>
+        <v>0.2969447308908575</v>
       </c>
       <c r="D11">
-        <v>0.204840877214212</v>
+        <v>0.1820519080852663</v>
       </c>
       <c r="E11">
-        <v>0.2465773391655936</v>
+        <v>0.5902031756236721</v>
       </c>
       <c r="F11">
-        <v>1.068425395061961</v>
+        <v>2.28099139727142</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12">
-        <v>-0.05141916087027687</v>
+        <v>0.05620636854923822</v>
       </c>
       <c r="C12">
-        <v>0.6688594547042822</v>
+        <v>1.780161045069737</v>
       </c>
       <c r="D12">
-        <v>0.1742650462756287</v>
+        <v>0.1162521238418264</v>
       </c>
       <c r="E12">
-        <v>0.1513711059950762</v>
+        <v>0.3012702498972177</v>
       </c>
       <c r="F12">
-        <v>1.045914767845264</v>
+        <v>2.25388978735802</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B13">
-        <v>0.3620537072037055</v>
+        <v>-0.2306254893194724</v>
       </c>
       <c r="C13">
-        <v>0.199697250436656</v>
+        <v>-0.2419638744901539</v>
       </c>
       <c r="D13">
-        <v>-0.1852837505409162</v>
+        <v>-0.5689349498059277</v>
       </c>
       <c r="E13">
-        <v>0.2316861676443439</v>
+        <v>1.135921683711521</v>
       </c>
       <c r="F13">
-        <v>0.9787208758256215</v>
+        <v>2.177445997327075</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B14">
-        <v>0.1828633925127984</v>
+        <v>0.05365688414532332</v>
       </c>
       <c r="C14">
-        <v>0.4657774491862614</v>
+        <v>0.5566891715194699</v>
       </c>
       <c r="D14">
-        <v>-0.1080161153809398</v>
+        <v>-0.6117250037104733</v>
       </c>
       <c r="E14">
-        <v>0.1874715781293173</v>
+        <v>0.8999719269268696</v>
       </c>
       <c r="F14">
-        <v>0.9441285352093169</v>
+        <v>2.122042986302136</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B15">
-        <v>-0.3524285142246103</v>
+        <v>0.5541371165036659</v>
       </c>
       <c r="C15">
-        <v>-0.2954397145703026</v>
+        <v>0.9393262118457439</v>
       </c>
       <c r="D15">
-        <v>0.0111292422204044</v>
+        <v>0.003329381234401962</v>
       </c>
       <c r="E15">
-        <v>0.176290946707151</v>
+        <v>0.5102252559792508</v>
       </c>
       <c r="F15">
-        <v>0.8352884177224684</v>
+        <v>2.007017965563063</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B16">
-        <v>0.2074444762793139</v>
+        <v>0.5770038664865709</v>
       </c>
       <c r="C16">
-        <v>-0.16214222352585</v>
+        <v>-0.3714924379900846</v>
       </c>
       <c r="D16">
-        <v>0.1023183902262578</v>
+        <v>0.5618295085863023</v>
       </c>
       <c r="E16">
-        <v>0.3285880911669605</v>
+        <v>0.4928383487731234</v>
       </c>
       <c r="F16">
-        <v>0.8004931811983822</v>
+        <v>2.003164161836081</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B17">
-        <v>0.1366553351473395</v>
+        <v>-0.536390943423142</v>
       </c>
       <c r="C17">
-        <v>-0.1091833040826706</v>
+        <v>0.3246107096194479</v>
       </c>
       <c r="D17">
-        <v>0.02077499685377262</v>
+        <v>0.310577800191262</v>
       </c>
       <c r="E17">
-        <v>0.5247657646774471</v>
+        <v>0.7797238074517163</v>
       </c>
       <c r="F17">
-        <v>0.7913794007612298</v>
+        <v>1.951303260685568</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B18">
-        <v>0.01271293952951794</v>
+        <v>-0.5564747217236619</v>
       </c>
       <c r="C18">
-        <v>-0.4467013189624293</v>
+        <v>0.9687442071529575</v>
       </c>
       <c r="D18">
-        <v>0.2062189170368773</v>
+        <v>-0.3897827623588803</v>
       </c>
       <c r="E18">
-        <v>-0.1074382514044844</v>
+        <v>0.03401945700039843</v>
       </c>
       <c r="F18">
-        <v>0.773071426933309</v>
+        <v>1.949021148235898</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B19">
-        <v>0.07369644469089737</v>
+        <v>0.1851750215839094</v>
       </c>
       <c r="C19">
-        <v>0.2785408356586022</v>
+        <v>0.1529939860961966</v>
       </c>
       <c r="D19">
-        <v>0.1182894550579569</v>
+        <v>1.29449727915535</v>
       </c>
       <c r="E19">
-        <v>-0.2892989394189991</v>
+        <v>0.3036599976531182</v>
       </c>
       <c r="F19">
-        <v>0.7598256748264557</v>
+        <v>1.936326284488574</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B20">
-        <v>-0.1139637344058367</v>
+        <v>0.5283878281268557</v>
       </c>
       <c r="C20">
-        <v>-0.07865540354274717</v>
+        <v>0.270562664655412</v>
       </c>
       <c r="D20">
-        <v>0.1857160753787122</v>
+        <v>0.4003035162588562</v>
       </c>
       <c r="E20">
-        <v>0.3678783258737927</v>
+        <v>-0.6536608086221287</v>
       </c>
       <c r="F20">
-        <v>0.7462135392010887</v>
+        <v>1.852914817663253</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B21">
-        <v>0.08208699342505252</v>
+        <v>0.8440407910494787</v>
       </c>
       <c r="C21">
-        <v>0.3360576216916464</v>
+        <v>0.2274518847959064</v>
       </c>
       <c r="D21">
-        <v>-0.1161428841930635</v>
+        <v>0.7592865882885727</v>
       </c>
       <c r="E21">
-        <v>-0.1481282327157398</v>
+        <v>-0.02093819803449048</v>
       </c>
       <c r="F21">
-        <v>0.6824157320255022</v>
+        <v>1.851717462168448</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B22">
-        <v>0.1857996441754122</v>
+        <v>0.7341190419292181</v>
       </c>
       <c r="C22">
-        <v>-0.4279033927949293</v>
+        <v>-0.06604824178234681</v>
       </c>
       <c r="D22">
-        <v>-0.05371543609114935</v>
+        <v>0.6114752581928316</v>
       </c>
       <c r="E22">
-        <v>0.01325731649338632</v>
+        <v>-0.3958499990911966</v>
       </c>
       <c r="F22">
-        <v>0.6806757895548773</v>
+        <v>1.807492540995593</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B23">
-        <v>-0.06152862970867955</v>
+        <v>-0.2848008042571012</v>
       </c>
       <c r="C23">
-        <v>-0.3182237193775765</v>
+        <v>1.22056299860468</v>
       </c>
       <c r="D23">
-        <v>0.1515528292301048</v>
+        <v>-0.1242481463010925</v>
       </c>
       <c r="E23">
-        <v>0.1399636357034608</v>
+        <v>0.1698187272268132</v>
       </c>
       <c r="F23">
-        <v>0.6712688140198216</v>
+        <v>1.799430676389687</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B24">
-        <v>-0.2072443056295195</v>
+        <v>-0.5010032182042183</v>
       </c>
       <c r="C24">
-        <v>0.1122023055591433</v>
+        <v>0.3279311749589766</v>
       </c>
       <c r="D24">
-        <v>-0.04340324439703339</v>
+        <v>0.4940177398006709</v>
       </c>
       <c r="E24">
-        <v>-0.3073038438729712</v>
+        <v>-0.4740112491981617</v>
       </c>
       <c r="F24">
-        <v>0.6701536994586674</v>
+        <v>1.796963382162028</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B25">
-        <v>-0.171475202284078</v>
+        <v>-0.2561831412142288</v>
       </c>
       <c r="C25">
-        <v>0.2140162084680017</v>
+        <v>-0.3585017319415659</v>
       </c>
       <c r="D25">
-        <v>-0.2239152764726013</v>
+        <v>0.08251425089720543</v>
       </c>
       <c r="E25">
-        <v>0.05728901850279803</v>
+        <v>1.092758892114069</v>
       </c>
       <c r="F25">
-        <v>0.666695705727479</v>
+        <v>1.789958016167069</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B26">
-        <v>0.004343001322126185</v>
+        <v>1.00458886406689</v>
       </c>
       <c r="C26">
-        <v>-0.3888852357390766</v>
+        <v>-0.03103935960462656</v>
       </c>
       <c r="D26">
-        <v>0.1048358895705592</v>
+        <v>-0.3822208089903208</v>
       </c>
       <c r="E26">
-        <v>-0.1165446090041745</v>
+        <v>0.3596478823762599</v>
       </c>
       <c r="F26">
-        <v>0.6146087356359365</v>
+        <v>1.777496915038097</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B27">
-        <v>0.008542395011042429</v>
+        <v>0.7042604359390128</v>
       </c>
       <c r="C27">
-        <v>0.4977080179076924</v>
+        <v>-0.3290718435492158</v>
       </c>
       <c r="D27">
-        <v>-0.04154297776351132</v>
+        <v>-0.5129301791256193</v>
       </c>
       <c r="E27">
-        <v>0.02470058249798876</v>
+        <v>0.2279624269790317</v>
       </c>
       <c r="F27">
-        <v>0.572493973180235</v>
+        <v>1.77422488559288</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B28">
-        <v>0.06920159709181256</v>
+        <v>0.6629576473218375</v>
       </c>
       <c r="C28">
-        <v>0.2272348395230243</v>
+        <v>-0.2782573610226122</v>
       </c>
       <c r="D28">
-        <v>-0.1794357960000936</v>
+        <v>-0.2480337062811458</v>
       </c>
       <c r="E28">
-        <v>-0.05628420620954922</v>
+        <v>0.5769404368220508</v>
       </c>
       <c r="F28">
-        <v>0.5321564388244796</v>
+        <v>1.766189151447646</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B29">
-        <v>-0.1379776003009582</v>
+        <v>-0.09799811329449915</v>
       </c>
       <c r="C29">
-        <v>-0.3179058600979323</v>
+        <v>-0.2468981044519143</v>
       </c>
       <c r="D29">
-        <v>-0.02108546386205789</v>
+        <v>0.9663794443117333</v>
       </c>
       <c r="E29">
-        <v>0.03417920315207429</v>
+        <v>-0.4516468879563782</v>
       </c>
       <c r="F29">
-        <v>0.5111481274130225</v>
+        <v>1.762922550014525</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>-0.1350391062747186</v>
+        <v>-0.4437498290799506</v>
       </c>
       <c r="C30">
-        <v>-0.2571247338591039</v>
+        <v>-0.6353024352851607</v>
       </c>
       <c r="D30">
-        <v>-0.08451217991270701</v>
+        <v>-0.362608377087826</v>
       </c>
       <c r="E30">
-        <v>-0.02601197666709155</v>
+        <v>-0.2996370857699517</v>
       </c>
       <c r="F30">
-        <v>0.5026879967136211</v>
+        <v>1.741297727222889</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>0.04295649268311561</v>
+        <v>0.5845801220105462</v>
       </c>
       <c r="C31">
-        <v>0.2083190349674677</v>
+        <v>1.063962001179616</v>
       </c>
       <c r="D31">
-        <v>-0.09194957277084442</v>
+        <v>0.01551957538826199</v>
       </c>
       <c r="E31">
-        <v>0.116925983175565</v>
+        <v>0.06925919436759309</v>
       </c>
       <c r="F31">
-        <v>0.4601510835969927</v>
+        <v>1.733320892946017</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B32">
-        <v>-0.1060560780827913</v>
+        <v>-0.4112488708124342</v>
       </c>
       <c r="C32">
-        <v>-0.08321801574423326</v>
+        <v>0.2083384846056997</v>
       </c>
       <c r="D32">
-        <v>-0.05810114794744752</v>
+        <v>-0.6276795616286086</v>
       </c>
       <c r="E32">
-        <v>0.1013876085834467</v>
+        <v>-0.4557174125313267</v>
       </c>
       <c r="F32">
-        <v>0.3487628503579187</v>
+        <v>1.702984329578069</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B33">
-        <v>-0.02342584522228703</v>
+        <v>0.1339236034794045</v>
       </c>
       <c r="C33">
-        <v>-0.2104719915982121</v>
+        <v>-0.3283406796047272</v>
       </c>
       <c r="D33">
-        <v>-0.04581674563305758</v>
+        <v>0.2533247383698616</v>
       </c>
       <c r="E33">
-        <v>-0.05011287421233387</v>
+        <v>0.9639657188742925</v>
       </c>
       <c r="F33">
-        <v>0.3298274566658905</v>
+        <v>1.679554740328286</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>-0.07475103653497654</v>
+        <v>-0.239920242442232</v>
       </c>
       <c r="C34">
-        <v>0.05097427871763144</v>
+        <v>0.9708027926458125</v>
       </c>
       <c r="D34">
-        <v>0.1041639676329787</v>
+        <v>-0.2206922825567069</v>
       </c>
       <c r="E34">
-        <v>-0.07675553463088686</v>
+        <v>-0.2405973226083927</v>
       </c>
       <c r="F34">
-        <v>0.3066448175164735</v>
+        <v>1.672012640253144</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B35">
-        <v>0.1849234432744343</v>
+        <v>1.299934496402054</v>
       </c>
       <c r="C35">
-        <v>-0.003031841852713438</v>
+        <v>-0.2234025476208477</v>
       </c>
       <c r="D35">
-        <v>0.05639021706771642</v>
+        <v>0.1126160422955809</v>
       </c>
       <c r="E35">
-        <v>0.004440112213552242</v>
+        <v>-0.0352402569228919</v>
       </c>
       <c r="F35">
-        <v>0.2487856144084164</v>
+        <v>1.671193343241375</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B36">
-        <v>-0.1042488936859848</v>
+        <v>-0.4412860569539124</v>
       </c>
       <c r="C36">
-        <v>-0.09847665348099802</v>
+        <v>-0.2022255516248389</v>
       </c>
       <c r="D36">
-        <v>0.01740117864809444</v>
+        <v>-0.3570368983227102</v>
       </c>
       <c r="E36">
-        <v>0.02745256447628</v>
+        <v>0.6599567629661327</v>
       </c>
       <c r="F36">
-        <v>0.2475792902913572</v>
+        <v>1.660505269867594</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B37">
-        <v>-0.00286192632796675</v>
+        <v>-0.2873130751757118</v>
       </c>
       <c r="C37">
-        <v>-0.001144775811744893</v>
+        <v>0.1345314665601378</v>
       </c>
       <c r="D37">
-        <v>0.002332796523539662</v>
+        <v>0.6917268941526571</v>
       </c>
       <c r="E37">
-        <v>0.0006142811161976223</v>
+        <v>0.5238895174425777</v>
       </c>
       <c r="F37">
-        <v>0.006953779779448927</v>
+        <v>1.637460953331084</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38">
+        <v>-0.01477650548022602</v>
+      </c>
+      <c r="C38">
+        <v>1.057808608269902</v>
+      </c>
+      <c r="D38">
+        <v>-0.3881426947522246</v>
+      </c>
+      <c r="E38">
+        <v>0.1670964521186247</v>
+      </c>
+      <c r="F38">
+        <v>1.627824260620977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39">
+        <v>-0.2946169942064797</v>
+      </c>
+      <c r="C39">
+        <v>-0.3454687969378574</v>
+      </c>
+      <c r="D39">
+        <v>0.3791652087962643</v>
+      </c>
+      <c r="E39">
+        <v>-0.5897000264522008</v>
+      </c>
+      <c r="F39">
+        <v>1.608951026392802</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40">
+        <v>-0.2204674627528223</v>
+      </c>
+      <c r="C40">
+        <v>0.4193409737389819</v>
+      </c>
+      <c r="D40">
+        <v>0.6085468059633805</v>
+      </c>
+      <c r="E40">
+        <v>-0.3451598117921481</v>
+      </c>
+      <c r="F40">
+        <v>1.593515054247333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41">
+        <v>0.06877849973618999</v>
+      </c>
+      <c r="C41">
+        <v>0.150647598785552</v>
+      </c>
+      <c r="D41">
+        <v>-0.6994760678591891</v>
+      </c>
+      <c r="E41">
+        <v>-0.6568176169265603</v>
+      </c>
+      <c r="F41">
+        <v>1.575719783307491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42">
+        <v>-0.6394018917580494</v>
+      </c>
+      <c r="C42">
+        <v>0.07187527626082391</v>
+      </c>
+      <c r="D42">
+        <v>0.7539174006869662</v>
+      </c>
+      <c r="E42">
+        <v>0.1011414441931922</v>
+      </c>
+      <c r="F42">
+        <v>1.566336012899032</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43">
+        <v>0.5197667472263872</v>
+      </c>
+      <c r="C43">
+        <v>-0.523867672330696</v>
+      </c>
+      <c r="D43">
+        <v>-0.4757329426415848</v>
+      </c>
+      <c r="E43">
+        <v>-0.04246461967849846</v>
+      </c>
+      <c r="F43">
+        <v>1.561831981877166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>0.7572883017502237</v>
+      </c>
+      <c r="C44">
+        <v>0.5510731754039058</v>
+      </c>
+      <c r="D44">
+        <v>0.1838713657276236</v>
+      </c>
+      <c r="E44">
+        <v>-0.05596290067388265</v>
+      </c>
+      <c r="F44">
+        <v>1.548195743555636</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45">
+        <v>0.2849479963116954</v>
+      </c>
+      <c r="C45">
+        <v>-0.5171950878131899</v>
+      </c>
+      <c r="D45">
+        <v>-0.1186834118963935</v>
+      </c>
+      <c r="E45">
+        <v>0.6042692030991073</v>
+      </c>
+      <c r="F45">
+        <v>1.525095699120386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46">
+        <v>-0.2007256448410141</v>
+      </c>
+      <c r="C46">
+        <v>0.4260347713127517</v>
+      </c>
+      <c r="D46">
+        <v>-0.3873628382707704</v>
+      </c>
+      <c r="E46">
+        <v>0.4994127455260584</v>
+      </c>
+      <c r="F46">
+        <v>1.513535999950595</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47">
+        <v>0.5175986496181542</v>
+      </c>
+      <c r="C47">
+        <v>0.1660963239247388</v>
+      </c>
+      <c r="D47">
+        <v>-0.2088165082479768</v>
+      </c>
+      <c r="E47">
+        <v>0.6197512954262345</v>
+      </c>
+      <c r="F47">
+        <v>1.512262777217104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48">
+        <v>0.1982058424051567</v>
+      </c>
+      <c r="C48">
+        <v>0.3142592710030525</v>
+      </c>
+      <c r="D48">
+        <v>0.5516974669583472</v>
+      </c>
+      <c r="E48">
+        <v>0.4398093486366725</v>
+      </c>
+      <c r="F48">
+        <v>1.503971929003229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49">
+        <v>-0.2442707871641527</v>
+      </c>
+      <c r="C49">
+        <v>0.3366789174695564</v>
+      </c>
+      <c r="D49">
+        <v>-0.4747720930446835</v>
+      </c>
+      <c r="E49">
+        <v>-0.4372635229743219</v>
+      </c>
+      <c r="F49">
+        <v>1.492985320652715</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50">
+        <v>-0.6948936864868626</v>
+      </c>
+      <c r="C50">
+        <v>0.1501110465737949</v>
+      </c>
+      <c r="D50">
+        <v>-0.1292133383363632</v>
+      </c>
+      <c r="E50">
+        <v>0.5038849427973164</v>
+      </c>
+      <c r="F50">
+        <v>1.478103014194337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51">
+        <v>0.7524932373943682</v>
+      </c>
+      <c r="C51">
+        <v>0.1376888097126046</v>
+      </c>
+      <c r="D51">
+        <v>-0.5684475341491854</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1.458629581256158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52">
+        <v>-0.1489488292738889</v>
+      </c>
+      <c r="C52">
+        <v>-0.4136061106716586</v>
+      </c>
+      <c r="D52">
+        <v>0.3887886391209527</v>
+      </c>
+      <c r="E52">
+        <v>-0.5017586621367933</v>
+      </c>
+      <c r="F52">
+        <v>1.453102241203294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53">
+        <v>0.2718459191304652</v>
+      </c>
+      <c r="C53">
+        <v>-0.4118423128653971</v>
+      </c>
+      <c r="D53">
+        <v>0.1670306077022605</v>
+      </c>
+      <c r="E53">
+        <v>0.6004489032374218</v>
+      </c>
+      <c r="F53">
+        <v>1.451167742935545</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54">
+        <v>-0.44246032961441</v>
+      </c>
+      <c r="C54">
+        <v>-0.2750614818543923</v>
+      </c>
+      <c r="D54">
+        <v>-0.2344935925843273</v>
+      </c>
+      <c r="E54">
+        <v>-0.4955960861184566</v>
+      </c>
+      <c r="F54">
+        <v>1.447611490171586</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55">
+        <v>-0.1000126401039901</v>
+      </c>
+      <c r="C55">
+        <v>-0.4675339065122498</v>
+      </c>
+      <c r="D55">
+        <v>-0.1539437730698754</v>
+      </c>
+      <c r="E55">
+        <v>0.7168477411167709</v>
+      </c>
+      <c r="F55">
+        <v>1.438338060802886</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56">
+        <v>1.077808314198435</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>-0.09166530810563434</v>
+      </c>
+      <c r="E56">
+        <v>-0.2573354140732529</v>
+      </c>
+      <c r="F56">
+        <v>1.426809036377322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57">
+        <v>-0.5742180388818241</v>
+      </c>
+      <c r="C57">
+        <v>0.1208154340115051</v>
+      </c>
+      <c r="D57">
+        <v>-0.407414412387137</v>
+      </c>
+      <c r="E57">
+        <v>0.2931164833291402</v>
+      </c>
+      <c r="F57">
+        <v>1.395564368609606</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58">
+        <v>0.3066614616344459</v>
+      </c>
+      <c r="C58">
+        <v>0.2379738933338049</v>
+      </c>
+      <c r="D58">
+        <v>-0.2357816100554324</v>
+      </c>
+      <c r="E58">
+        <v>-0.5941090713385154</v>
+      </c>
+      <c r="F58">
+        <v>1.374526036362199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59">
+        <v>-0.2512459552264895</v>
+      </c>
+      <c r="C59">
+        <v>0.3081171989142104</v>
+      </c>
+      <c r="D59">
+        <v>0.2084886153939041</v>
+      </c>
+      <c r="E59">
+        <v>0.6030614661949769</v>
+      </c>
+      <c r="F59">
+        <v>1.370913235729581</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60">
+        <v>0.09941947219779945</v>
+      </c>
+      <c r="C60">
+        <v>-0.0511588055159824</v>
+      </c>
+      <c r="D60">
+        <v>1.001880579133516</v>
+      </c>
+      <c r="E60">
+        <v>-0.2005888979823124</v>
+      </c>
+      <c r="F60">
+        <v>1.35304775482961</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61">
+        <v>0.1292508331707503</v>
+      </c>
+      <c r="C61">
+        <v>0.2776966283652533</v>
+      </c>
+      <c r="D61">
+        <v>0.5602748579863843</v>
+      </c>
+      <c r="E61">
+        <v>0.3631994796460616</v>
+      </c>
+      <c r="F61">
+        <v>1.330421799168449</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62">
+        <v>-0.6249875186027509</v>
+      </c>
+      <c r="C62">
+        <v>-0.2758284350781276</v>
+      </c>
+      <c r="D62">
+        <v>0.150904013097614</v>
+      </c>
+      <c r="E62">
+        <v>0.2783962091787273</v>
+      </c>
+      <c r="F62">
+        <v>1.33011617595722</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63">
+        <v>0.04615384298904934</v>
+      </c>
+      <c r="C63">
+        <v>0.3108662597136707</v>
+      </c>
+      <c r="D63">
+        <v>-0.3835321980125005</v>
+      </c>
+      <c r="E63">
+        <v>0.5556092537553863</v>
+      </c>
+      <c r="F63">
+        <v>1.296161554470607</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64">
+        <v>-0.2978715539106368</v>
+      </c>
+      <c r="C64">
+        <v>0.2970439389462982</v>
+      </c>
+      <c r="D64">
+        <v>0.4289401779972999</v>
+      </c>
+      <c r="E64">
+        <v>-0.2685655428463478</v>
+      </c>
+      <c r="F64">
+        <v>1.292421213700583</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65">
+        <v>-0.516322002241956</v>
+      </c>
+      <c r="C65">
+        <v>0.08572207931010167</v>
+      </c>
+      <c r="D65">
+        <v>-0.4772736635484945</v>
+      </c>
+      <c r="E65">
+        <v>0.2059652200120925</v>
+      </c>
+      <c r="F65">
+        <v>1.285282965112645</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66">
+        <v>-0.1378435025251263</v>
+      </c>
+      <c r="C66">
+        <v>0.005057528137472289</v>
+      </c>
+      <c r="D66">
+        <v>-0.5217691533318876</v>
+      </c>
+      <c r="E66">
+        <v>-0.5925574606847313</v>
+      </c>
+      <c r="F66">
+        <v>1.257227644679217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67">
+        <v>-0.2045458343910123</v>
+      </c>
+      <c r="C67">
+        <v>-0.683052541342013</v>
+      </c>
+      <c r="D67">
+        <v>-0.360091527665339</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1.247689903398364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68">
+        <v>0.3233166168654125</v>
+      </c>
+      <c r="C68">
+        <v>0.05244019291099256</v>
+      </c>
+      <c r="D68">
+        <v>0.6148591860744976</v>
+      </c>
+      <c r="E68">
+        <v>-0.2563975131286303</v>
+      </c>
+      <c r="F68">
+        <v>1.247013508979533</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69">
+        <v>-0.3117101032690689</v>
+      </c>
+      <c r="C69">
+        <v>-0.333288657685712</v>
+      </c>
+      <c r="D69">
+        <v>0.04314369832928788</v>
+      </c>
+      <c r="E69">
+        <v>-0.5116147336908596</v>
+      </c>
+      <c r="F69">
+        <v>1.199757192974928</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70">
+        <v>0.4149103894569133</v>
+      </c>
+      <c r="C70">
+        <v>-0.5406475948031684</v>
+      </c>
+      <c r="D70">
+        <v>-0.07438463673763007</v>
+      </c>
+      <c r="E70">
+        <v>-0.168703748167357</v>
+      </c>
+      <c r="F70">
+        <v>1.198646369165069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71">
+        <v>-0.03158971740362337</v>
+      </c>
+      <c r="C71">
+        <v>-0.4564580733304313</v>
+      </c>
+      <c r="D71">
+        <v>0.01437214928023089</v>
+      </c>
+      <c r="E71">
+        <v>-0.6916745846804202</v>
+      </c>
+      <c r="F71">
+        <v>1.194094524694706</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72">
+        <v>0.594751644670209</v>
+      </c>
+      <c r="C72">
+        <v>0.09626709952888945</v>
+      </c>
+      <c r="D72">
+        <v>0.08320448107848155</v>
+      </c>
+      <c r="E72">
+        <v>0.4138251807740867</v>
+      </c>
+      <c r="F72">
+        <v>1.188048406051667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73">
+        <v>0.02695977544729922</v>
+      </c>
+      <c r="C73">
+        <v>0.6231672303276021</v>
+      </c>
+      <c r="D73">
+        <v>-0.1304723343402852</v>
+      </c>
+      <c r="E73">
+        <v>-0.394993648414514</v>
+      </c>
+      <c r="F73">
+        <v>1.175592988529701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74">
+        <v>0.5414420651268224</v>
+      </c>
+      <c r="C74">
+        <v>0.1500227825826974</v>
+      </c>
+      <c r="D74">
+        <v>-0.03804353464521293</v>
+      </c>
+      <c r="E74">
+        <v>0.4331997131195617</v>
+      </c>
+      <c r="F74">
+        <v>1.162708095474295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75">
+        <v>0.4874774226491883</v>
+      </c>
+      <c r="C75">
+        <v>-0.3096889623901979</v>
+      </c>
+      <c r="D75">
+        <v>0.2749559225463987</v>
+      </c>
+      <c r="E75">
+        <v>0.06632446099120393</v>
+      </c>
+      <c r="F75">
+        <v>1.138446768576989</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76">
+        <v>-0.3071910755477699</v>
+      </c>
+      <c r="C76">
+        <v>0.6879668765058948</v>
+      </c>
+      <c r="D76">
+        <v>-0.05793883984310078</v>
+      </c>
+      <c r="E76">
+        <v>-0.08312605356383729</v>
+      </c>
+      <c r="F76">
+        <v>1.136222845460603</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77">
+        <v>-0.139986052811505</v>
+      </c>
+      <c r="C77">
+        <v>-0.1743328701118346</v>
+      </c>
+      <c r="D77">
+        <v>0.4842547500009418</v>
+      </c>
+      <c r="E77">
+        <v>-0.3311550589372997</v>
+      </c>
+      <c r="F77">
+        <v>1.129728731861581</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78">
+        <v>-0.4989762648109489</v>
+      </c>
+      <c r="C78">
+        <v>-0.3625605948412859</v>
+      </c>
+      <c r="D78">
+        <v>0.05036749692209708</v>
+      </c>
+      <c r="E78">
+        <v>-0.2089912525232215</v>
+      </c>
+      <c r="F78">
+        <v>1.120895609097553</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79">
+        <v>0.09484766285995572</v>
+      </c>
+      <c r="C79">
+        <v>0.2144815329468708</v>
+      </c>
+      <c r="D79">
+        <v>-0.6314105499355973</v>
+      </c>
+      <c r="E79">
+        <v>0.1792903706724045</v>
+      </c>
+      <c r="F79">
+        <v>1.120030116414828</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80">
+        <v>0.3665748582740271</v>
+      </c>
+      <c r="C80">
+        <v>-0.4472826535498967</v>
+      </c>
+      <c r="D80">
+        <v>-0.1692549409319636</v>
+      </c>
+      <c r="E80">
+        <v>0.1302926935386111</v>
+      </c>
+      <c r="F80">
+        <v>1.113405146294498</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81">
+        <v>-0.1571390373978538</v>
+      </c>
+      <c r="C81">
+        <v>0.5234107615222607</v>
+      </c>
+      <c r="D81">
+        <v>-0.1932084254177224</v>
+      </c>
+      <c r="E81">
+        <v>-0.2356602525297715</v>
+      </c>
+      <c r="F81">
+        <v>1.109418476867609</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82">
+        <v>0.2653496239359066</v>
+      </c>
+      <c r="C82">
+        <v>0.3719066891279945</v>
+      </c>
+      <c r="D82">
+        <v>-0.2513055442626541</v>
+      </c>
+      <c r="E82">
+        <v>-0.219053429245807</v>
+      </c>
+      <c r="F82">
+        <v>1.107615286572362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83">
+        <v>0.4077543695598518</v>
+      </c>
+      <c r="C83">
+        <v>0.07241059577535114</v>
+      </c>
+      <c r="D83">
+        <v>-0.05107738208613055</v>
+      </c>
+      <c r="E83">
+        <v>0.5714727711387848</v>
+      </c>
+      <c r="F83">
+        <v>1.102715118560118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84">
+        <v>-0.394758705960263</v>
+      </c>
+      <c r="C84">
+        <v>0.009688564499679142</v>
+      </c>
+      <c r="D84">
+        <v>-0.4506341110759697</v>
+      </c>
+      <c r="E84">
+        <v>0.2475282543095838</v>
+      </c>
+      <c r="F84">
+        <v>1.102609635845496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85">
+        <v>0.2565684080563453</v>
+      </c>
+      <c r="C85">
+        <v>0.4221789593169618</v>
+      </c>
+      <c r="D85">
+        <v>0.03823623042710933</v>
+      </c>
+      <c r="E85">
+        <v>0.3772740005312918</v>
+      </c>
+      <c r="F85">
+        <v>1.094257598331708</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86">
+        <v>-0.3942879504303988</v>
+      </c>
+      <c r="C86">
+        <v>0.1448022636404498</v>
+      </c>
+      <c r="D86">
+        <v>0.3593868328125638</v>
+      </c>
+      <c r="E86">
+        <v>-0.18475851829445</v>
+      </c>
+      <c r="F86">
+        <v>1.083235565177862</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87">
+        <v>0.6076592741860125</v>
+      </c>
+      <c r="C87">
+        <v>-0.1484997908607466</v>
+      </c>
+      <c r="D87">
+        <v>0.1986693276372258</v>
+      </c>
+      <c r="E87">
+        <v>0.1224659837484627</v>
+      </c>
+      <c r="F87">
+        <v>1.077294376432448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88">
+        <v>-0.2699007794321535</v>
+      </c>
+      <c r="C88">
+        <v>-0.2382285327321826</v>
+      </c>
+      <c r="D88">
+        <v>-0.3679005575457438</v>
+      </c>
+      <c r="E88">
+        <v>-0.1895813641719584</v>
+      </c>
+      <c r="F88">
+        <v>1.065611233882038</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89">
+        <v>-0.3649300620206305</v>
+      </c>
+      <c r="C89">
+        <v>-0.1756059276296262</v>
+      </c>
+      <c r="D89">
+        <v>-0.06572838236648748</v>
+      </c>
+      <c r="E89">
+        <v>0.4363553461063667</v>
+      </c>
+      <c r="F89">
+        <v>1.042619718123111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90">
+        <v>-0.6448150416947342</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0.08464340123209269</v>
+      </c>
+      <c r="E90">
+        <v>0.2984507456053556</v>
+      </c>
+      <c r="F90">
+        <v>1.027909188532182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91">
+        <v>-0.2227339645695093</v>
+      </c>
+      <c r="C91">
+        <v>-0.5319312407061338</v>
+      </c>
+      <c r="D91">
+        <v>-0.01516693245828671</v>
+      </c>
+      <c r="E91">
+        <v>-0.2565606489703539</v>
+      </c>
+      <c r="F91">
+        <v>1.026392786704284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92">
+        <v>0.4100373948956542</v>
+      </c>
+      <c r="C92">
+        <v>0.2851017525856328</v>
+      </c>
+      <c r="D92">
+        <v>0.3288537845437032</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1.02399293202499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93">
+        <v>0.2676016871667448</v>
+      </c>
+      <c r="C93">
+        <v>0.2003493628316038</v>
+      </c>
+      <c r="D93">
+        <v>-0.0856760444633532</v>
+      </c>
+      <c r="E93">
+        <v>-0.4546124147107349</v>
+      </c>
+      <c r="F93">
+        <v>1.008239509172437</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94">
+        <v>0.7505386819337145</v>
+      </c>
+      <c r="C94">
+        <v>0.02575936398979506</v>
+      </c>
+      <c r="D94">
+        <v>-0.2193115343549135</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0.9956095802784231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95">
+        <v>0.1552508322400734</v>
+      </c>
+      <c r="C95">
+        <v>0.2908267468275394</v>
+      </c>
+      <c r="D95">
+        <v>0.1864592980283455</v>
+      </c>
+      <c r="E95">
+        <v>-0.3463181305394665</v>
+      </c>
+      <c r="F95">
+        <v>0.9788550076354248</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96">
+        <v>0.3507909363848418</v>
+      </c>
+      <c r="C96">
+        <v>-0.307793238996797</v>
+      </c>
+      <c r="D96">
+        <v>-0.03493383779257397</v>
+      </c>
+      <c r="E96">
+        <v>-0.2756519650747778</v>
+      </c>
+      <c r="F96">
+        <v>0.9691699782489906</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97">
+        <v>0.1866454619567437</v>
+      </c>
+      <c r="C97">
+        <v>0.6681316859259117</v>
+      </c>
+      <c r="D97">
+        <v>-0.003109057007166571</v>
+      </c>
+      <c r="E97">
+        <v>-0.09121772403699169</v>
+      </c>
+      <c r="F97">
+        <v>0.9491039289268136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98">
+        <v>0.2252986628525857</v>
+      </c>
+      <c r="C98">
+        <v>0.1034411214516897</v>
+      </c>
+      <c r="D98">
+        <v>-0.4126313048284531</v>
+      </c>
+      <c r="E98">
+        <v>0.2014231245851155</v>
+      </c>
+      <c r="F98">
+        <v>0.942794213717844</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99">
+        <v>-0.109067688355117</v>
+      </c>
+      <c r="C99">
+        <v>0.2446374444771799</v>
+      </c>
+      <c r="D99">
+        <v>0.3919452426895893</v>
+      </c>
+      <c r="E99">
+        <v>-0.1927512822946535</v>
+      </c>
+      <c r="F99">
+        <v>0.9384016578165398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100">
+        <v>-0.3616726668382777</v>
+      </c>
+      <c r="C100">
+        <v>-0.3472847499548005</v>
+      </c>
+      <c r="D100">
+        <v>-0.1565828560046488</v>
+      </c>
+      <c r="E100">
+        <v>-0.07184810567421351</v>
+      </c>
+      <c r="F100">
+        <v>0.9373883784719406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101">
+        <v>-0.3175614098739378</v>
+      </c>
+      <c r="C101">
+        <v>0.4427524650352377</v>
+      </c>
+      <c r="D101">
+        <v>0.1084491290276794</v>
+      </c>
+      <c r="E101">
+        <v>0.02206912756477464</v>
+      </c>
+      <c r="F101">
+        <v>0.8908321315016295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102">
+        <v>0.4159610712411907</v>
+      </c>
+      <c r="C102">
+        <v>0.09661628200010797</v>
+      </c>
+      <c r="D102">
+        <v>-0.2307636481141773</v>
+      </c>
+      <c r="E102">
+        <v>0.1429617775360068</v>
+      </c>
+      <c r="F102">
+        <v>0.8863027788914828</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103">
+        <v>0.3399018342665092</v>
+      </c>
+      <c r="C103">
+        <v>-0.08177274409246238</v>
+      </c>
+      <c r="D103">
+        <v>-0.08789862761731959</v>
+      </c>
+      <c r="E103">
+        <v>-0.3749465681394568</v>
+      </c>
+      <c r="F103">
+        <v>0.884519774115748</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B104">
+        <v>0.3682070320544473</v>
+      </c>
+      <c r="C104">
+        <v>0.2268983398393041</v>
+      </c>
+      <c r="D104">
+        <v>-0.1383920157343574</v>
+      </c>
+      <c r="E104">
+        <v>0.1410507887353538</v>
+      </c>
+      <c r="F104">
+        <v>0.8745481763634626</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105">
+        <v>0.2652579540849531</v>
+      </c>
+      <c r="C105">
+        <v>0.1329122788471273</v>
+      </c>
+      <c r="D105">
+        <v>-0.06845238729406089</v>
+      </c>
+      <c r="E105">
+        <v>-0.4077269518990485</v>
+      </c>
+      <c r="F105">
+        <v>0.8743495721251898</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B106">
+        <v>-0.2209629804286366</v>
+      </c>
+      <c r="C106">
+        <v>-0.1051436151147286</v>
+      </c>
+      <c r="D106">
+        <v>-0.3526014976687807</v>
+      </c>
+      <c r="E106">
+        <v>-0.1787272060123106</v>
+      </c>
+      <c r="F106">
+        <v>0.8574352992244565</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B107">
+        <v>-0.0008308445933336017</v>
+      </c>
+      <c r="C107">
+        <v>-0.5698773601752243</v>
+      </c>
+      <c r="D107">
+        <v>-0.2131134351045075</v>
+      </c>
+      <c r="E107">
+        <v>-0.04784459982033118</v>
+      </c>
+      <c r="F107">
+        <v>0.8316662396933966</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108">
+        <v>-0.4897294770491621</v>
+      </c>
+      <c r="C108">
+        <v>0.1576081840601586</v>
+      </c>
+      <c r="D108">
+        <v>0.07575110962152998</v>
+      </c>
+      <c r="E108">
+        <v>-0.08871329456051691</v>
+      </c>
+      <c r="F108">
+        <v>0.8118020652913677</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B109">
+        <v>0.1281375084764291</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>-0.386652640512118</v>
+      </c>
+      <c r="E109">
+        <v>-0.2822816423118771</v>
+      </c>
+      <c r="F109">
+        <v>0.7970717913004243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110">
+        <v>0.050671683387566</v>
+      </c>
+      <c r="C110">
+        <v>0.5506127622572723</v>
+      </c>
+      <c r="D110">
+        <v>-0.02932535299124739</v>
+      </c>
+      <c r="E110">
+        <v>0.1380616980547507</v>
+      </c>
+      <c r="F110">
+        <v>0.7686714966908363</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111">
+        <v>0.01815205094598427</v>
+      </c>
+      <c r="C111">
+        <v>-0.4639665177204984</v>
+      </c>
+      <c r="D111">
+        <v>0.07994514666371288</v>
+      </c>
+      <c r="E111">
+        <v>0.1694033222725291</v>
+      </c>
+      <c r="F111">
+        <v>0.7314670376027246</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112">
+        <v>0.09858357464837209</v>
+      </c>
+      <c r="C112">
+        <v>0.3491447206036082</v>
+      </c>
+      <c r="D112">
+        <v>-0.08849556105407497</v>
+      </c>
+      <c r="E112">
+        <v>-0.1948254029254846</v>
+      </c>
+      <c r="F112">
+        <v>0.7310492592315398</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113">
+        <v>-0.1243211760858149</v>
+      </c>
+      <c r="C113">
+        <v>0.4536430446328492</v>
+      </c>
+      <c r="D113">
+        <v>-0.07042575375904703</v>
+      </c>
+      <c r="E113">
+        <v>0.08237338912408054</v>
+      </c>
+      <c r="F113">
+        <v>0.7307633636017917</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114">
+        <v>-0.2057115972128287</v>
+      </c>
+      <c r="C114">
+        <v>0.117613019708031</v>
+      </c>
+      <c r="D114">
+        <v>0.330742174609191</v>
+      </c>
+      <c r="E114">
+        <v>-0.05252196791533048</v>
+      </c>
+      <c r="F114">
+        <v>0.7065887594453811</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115">
+        <v>-0.08871827634918894</v>
+      </c>
+      <c r="C115">
+        <v>-0.2588802889567221</v>
+      </c>
+      <c r="D115">
+        <v>0.1014511176778277</v>
+      </c>
+      <c r="E115">
+        <v>0.2420654189435956</v>
+      </c>
+      <c r="F115">
+        <v>0.6911151019273343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B116">
+        <v>0.2177247789596015</v>
+      </c>
+      <c r="C116">
+        <v>0.000486511725083183</v>
+      </c>
+      <c r="D116">
+        <v>-0.1150881862468563</v>
+      </c>
+      <c r="E116">
+        <v>0.3455170693594396</v>
+      </c>
+      <c r="F116">
+        <v>0.6788165462909806</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B117">
+        <v>-0.219556486331021</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0.2889551021795229</v>
+      </c>
+      <c r="E117">
+        <v>0.1549709877754313</v>
+      </c>
+      <c r="F117">
+        <v>0.6634825762859752</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118">
+        <v>0.1401543082326724</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0.08839873868887693</v>
+      </c>
+      <c r="E118">
+        <v>-0.43279476795662</v>
+      </c>
+      <c r="F118">
+        <v>0.6613478148781693</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B119">
+        <v>0.1297424174644159</v>
+      </c>
+      <c r="C119">
+        <v>0.3241434772968783</v>
+      </c>
+      <c r="D119">
+        <v>-0.02326931406655175</v>
+      </c>
+      <c r="E119">
+        <v>-0.1645525628129729</v>
+      </c>
+      <c r="F119">
+        <v>0.6417077716408189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B120">
+        <v>0.1496200167547557</v>
+      </c>
+      <c r="C120">
+        <v>-0.2072231779730629</v>
+      </c>
+      <c r="D120">
+        <v>0.02674853144759615</v>
+      </c>
+      <c r="E120">
+        <v>-0.2552374620960708</v>
+      </c>
+      <c r="F120">
+        <v>0.6388291882714855</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121">
+        <v>-0.1252527538788828</v>
+      </c>
+      <c r="C121">
+        <v>-0.09559244435175918</v>
+      </c>
+      <c r="D121">
+        <v>0.2726044115816066</v>
+      </c>
+      <c r="E121">
+        <v>-0.1403506362560289</v>
+      </c>
+      <c r="F121">
+        <v>0.6338002460682776</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B122">
+        <v>-0.3094559140901623</v>
+      </c>
+      <c r="C122">
+        <v>0.1536362713147037</v>
+      </c>
+      <c r="D122">
+        <v>0.03326865683257418</v>
+      </c>
+      <c r="E122">
+        <v>-0.1226964938100016</v>
+      </c>
+      <c r="F122">
+        <v>0.6190573360474417</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B123">
+        <v>-0.1028188517332479</v>
+      </c>
+      <c r="C123">
+        <v>-0.3116649092667734</v>
+      </c>
+      <c r="D123">
+        <v>-0.08003333082175257</v>
+      </c>
+      <c r="E123">
+        <v>0.0885321292219694</v>
+      </c>
+      <c r="F123">
+        <v>0.5830492210437432</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B124">
+        <v>0.0758231043456743</v>
+      </c>
+      <c r="C124">
+        <v>0.2890769217479725</v>
+      </c>
+      <c r="D124">
+        <v>-0.08156941146232854</v>
+      </c>
+      <c r="E124">
+        <v>0.1269859434510472</v>
+      </c>
+      <c r="F124">
+        <v>0.5734553810070225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125">
+        <v>-0.1393337978502589</v>
+      </c>
+      <c r="C125">
+        <v>-0.1950941665422824</v>
+      </c>
+      <c r="D125">
+        <v>-0.08648965686298993</v>
+      </c>
+      <c r="E125">
+        <v>0.1513164779173801</v>
+      </c>
+      <c r="F125">
+        <v>0.5722340991729113</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126">
+        <v>0.07513258961754499</v>
+      </c>
+      <c r="C126">
+        <v>0.2795795164928001</v>
+      </c>
+      <c r="D126">
+        <v>-0.1206836404845645</v>
+      </c>
+      <c r="E126">
+        <v>0.06644202523883158</v>
+      </c>
+      <c r="F126">
+        <v>0.5418377718337412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B127">
+        <v>0.1921686514695418</v>
+      </c>
+      <c r="C127">
+        <v>0.09659901946022487</v>
+      </c>
+      <c r="D127">
+        <v>-0.2234557115540753</v>
+      </c>
+      <c r="E127">
+        <v>-0.02403455902641571</v>
+      </c>
+      <c r="F127">
+        <v>0.5362579415102576</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128">
+        <v>-0.1266352147306862</v>
+      </c>
+      <c r="C128">
+        <v>0.2918603172463012</v>
+      </c>
+      <c r="D128">
+        <v>-0.06094838585068596</v>
+      </c>
+      <c r="E128">
+        <v>-0.02198100720140772</v>
+      </c>
+      <c r="F128">
+        <v>0.5014249250290811</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B129">
+        <v>-0.280184362283353</v>
+      </c>
+      <c r="C129">
+        <v>0.01721384286199479</v>
+      </c>
+      <c r="D129">
+        <v>0.1359720598214527</v>
+      </c>
+      <c r="E129">
+        <v>-0.06488307754037304</v>
+      </c>
+      <c r="F129">
+        <v>0.4982533425071735</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130">
+        <v>0.003183913349718237</v>
+      </c>
+      <c r="C130">
+        <v>0.001006512279664751</v>
+      </c>
+      <c r="D130">
+        <v>0.4121274373984851</v>
+      </c>
+      <c r="E130">
+        <v>-0.05808867655153471</v>
+      </c>
+      <c r="F130">
+        <v>0.4744065395794028</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131">
+        <v>0.208584995343672</v>
+      </c>
+      <c r="C131">
+        <v>-0.1158349014942064</v>
+      </c>
+      <c r="D131">
+        <v>0.09191888226288647</v>
+      </c>
+      <c r="E131">
+        <v>-0.05767465855411991</v>
+      </c>
+      <c r="F131">
+        <v>0.4740134376548848</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B132">
+        <v>-0.1373563411504779</v>
+      </c>
+      <c r="C132">
+        <v>0.09463778668384926</v>
+      </c>
+      <c r="D132">
+        <v>0.02505419861016778</v>
+      </c>
+      <c r="E132">
+        <v>-0.0605444385698044</v>
+      </c>
+      <c r="F132">
+        <v>0.3175927650142993</v>
       </c>
     </row>
   </sheetData>
